--- a/stock_historical_data/1wk/NTPC.NS.xlsx
+++ b/stock_historical_data/1wk/NTPC.NS.xlsx
@@ -57757,7 +57757,9 @@
       <c r="Q1023" t="n">
         <v>0</v>
       </c>
-      <c r="R1023" t="inlineStr"/>
+      <c r="R1023" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/NTPC.NS.xlsx
+++ b/stock_historical_data/1wk/NTPC.NS.xlsx
@@ -54739,7 +54739,9 @@
       <c r="P1024" t="n">
         <v>0</v>
       </c>
-      <c r="Q1024" t="inlineStr"/>
+      <c r="Q1024" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/NTPC.NS.xlsx
+++ b/stock_historical_data/1wk/NTPC.NS.xlsx
@@ -57869,7 +57869,9 @@
       <c r="Q1025" t="n">
         <v>0</v>
       </c>
-      <c r="R1025" t="inlineStr"/>
+      <c r="R1025" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/NTPC.NS.xlsx
+++ b/stock_historical_data/1wk/NTPC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1025"/>
+  <dimension ref="A1:R1027"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57873,6 +57873,114 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1026">
+      <c r="A1026" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1026" t="n">
+        <v>368.4500122070312</v>
+      </c>
+      <c r="C1026" t="n">
+        <v>372.25</v>
+      </c>
+      <c r="D1026" t="n">
+        <v>356.75</v>
+      </c>
+      <c r="E1026" t="n">
+        <v>359.7999877929688</v>
+      </c>
+      <c r="F1026" t="n">
+        <v>359.7999877929688</v>
+      </c>
+      <c r="G1026" t="n">
+        <v>50836164</v>
+      </c>
+      <c r="H1026" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1026" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1026" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1026" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1026" t="inlineStr"/>
+    </row>
+    <row r="1027">
+      <c r="A1027" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1027" t="n">
+        <v>357.6000061035156</v>
+      </c>
+      <c r="C1027" t="n">
+        <v>389.5</v>
+      </c>
+      <c r="D1027" t="n">
+        <v>355.5499877929688</v>
+      </c>
+      <c r="E1027" t="n">
+        <v>378.3500061035156</v>
+      </c>
+      <c r="F1027" t="n">
+        <v>378.3500061035156</v>
+      </c>
+      <c r="G1027" t="n">
+        <v>120753637</v>
+      </c>
+      <c r="H1027" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1027" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1027" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1027" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1027" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1wk/NTPC.NS.xlsx
+++ b/stock_historical_data/1wk/NTPC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1027"/>
+  <dimension ref="A1:R1037"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R56" t="n">
         <v>0</v>
@@ -3771,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R59" t="n">
         <v>0</v>
@@ -57805,7 +57805,7 @@
         <v>23</v>
       </c>
       <c r="O1024" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P1024" t="n">
         <v>0</v>
@@ -57925,7 +57925,9 @@
       <c r="Q1026" t="n">
         <v>0</v>
       </c>
-      <c r="R1026" t="inlineStr"/>
+      <c r="R1026" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1027">
       <c r="A1027" s="2" t="n">
@@ -57979,7 +57981,549 @@
       <c r="Q1027" t="n">
         <v>0</v>
       </c>
-      <c r="R1027" t="inlineStr"/>
+      <c r="R1027" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1028" t="n">
+        <v>381.75</v>
+      </c>
+      <c r="C1028" t="n">
+        <v>382</v>
+      </c>
+      <c r="D1028" t="n">
+        <v>365.1499938964844</v>
+      </c>
+      <c r="E1028" t="n">
+        <v>379.7999877929688</v>
+      </c>
+      <c r="F1028" t="n">
+        <v>376.8256530761719</v>
+      </c>
+      <c r="G1028" t="n">
+        <v>77162392</v>
+      </c>
+      <c r="H1028" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1028" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1028" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1028" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1028" t="inlineStr"/>
+    </row>
+    <row r="1029">
+      <c r="A1029" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1029" t="n">
+        <v>380.8500061035156</v>
+      </c>
+      <c r="C1029" t="n">
+        <v>383.7999877929688</v>
+      </c>
+      <c r="D1029" t="n">
+        <v>370</v>
+      </c>
+      <c r="E1029" t="n">
+        <v>377.1499938964844</v>
+      </c>
+      <c r="F1029" t="n">
+        <v>374.1964111328125</v>
+      </c>
+      <c r="G1029" t="n">
+        <v>70994040</v>
+      </c>
+      <c r="H1029" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1029" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1029" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1029" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1029" t="inlineStr"/>
+    </row>
+    <row r="1030">
+      <c r="A1030" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1030" t="n">
+        <v>378.6000061035156</v>
+      </c>
+      <c r="C1030" t="n">
+        <v>388.9500122070312</v>
+      </c>
+      <c r="D1030" t="n">
+        <v>362.8999938964844</v>
+      </c>
+      <c r="E1030" t="n">
+        <v>364.6499938964844</v>
+      </c>
+      <c r="F1030" t="n">
+        <v>361.7943115234375</v>
+      </c>
+      <c r="G1030" t="n">
+        <v>63883426</v>
+      </c>
+      <c r="H1030" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1030" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1030" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1030" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1030" t="inlineStr"/>
+    </row>
+    <row r="1031">
+      <c r="A1031" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1031" t="n">
+        <v>364.75</v>
+      </c>
+      <c r="C1031" t="n">
+        <v>399.5</v>
+      </c>
+      <c r="D1031" t="n">
+        <v>361.5499877929688</v>
+      </c>
+      <c r="E1031" t="n">
+        <v>396.2999877929688</v>
+      </c>
+      <c r="F1031" t="n">
+        <v>393.1964416503906</v>
+      </c>
+      <c r="G1031" t="n">
+        <v>151820772</v>
+      </c>
+      <c r="H1031" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1031" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1031" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1031" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1031" t="inlineStr"/>
+    </row>
+    <row r="1032">
+      <c r="A1032" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1032" t="n">
+        <v>404</v>
+      </c>
+      <c r="C1032" t="n">
+        <v>426.2999877929688</v>
+      </c>
+      <c r="D1032" t="n">
+        <v>392.6499938964844</v>
+      </c>
+      <c r="E1032" t="n">
+        <v>419.7000122070312</v>
+      </c>
+      <c r="F1032" t="n">
+        <v>416.4132080078125</v>
+      </c>
+      <c r="G1032" t="n">
+        <v>144963109</v>
+      </c>
+      <c r="H1032" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1032" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1032" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1032" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1032" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1032" t="inlineStr"/>
+    </row>
+    <row r="1033">
+      <c r="A1033" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1033" t="n">
+        <v>407.6499938964844</v>
+      </c>
+      <c r="C1033" t="n">
+        <v>424.9500122070312</v>
+      </c>
+      <c r="D1033" t="n">
+        <v>404.6499938964844</v>
+      </c>
+      <c r="E1033" t="n">
+        <v>410.6499938964844</v>
+      </c>
+      <c r="F1033" t="n">
+        <v>407.4340515136719</v>
+      </c>
+      <c r="G1033" t="n">
+        <v>103678956</v>
+      </c>
+      <c r="H1033" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1033" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1033" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1033" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1033" t="inlineStr"/>
+    </row>
+    <row r="1034">
+      <c r="A1034" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1034" t="n">
+        <v>410</v>
+      </c>
+      <c r="C1034" t="n">
+        <v>410</v>
+      </c>
+      <c r="D1034" t="n">
+        <v>393.2999877929688</v>
+      </c>
+      <c r="E1034" t="n">
+        <v>398.0499877929688</v>
+      </c>
+      <c r="F1034" t="n">
+        <v>398.0499877929688</v>
+      </c>
+      <c r="G1034" t="n">
+        <v>60879163</v>
+      </c>
+      <c r="H1034" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1034" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1034" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1034" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1034" t="inlineStr"/>
+    </row>
+    <row r="1035">
+      <c r="A1035" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1035" t="n">
+        <v>402.2999877929688</v>
+      </c>
+      <c r="C1035" t="n">
+        <v>410.0499877929688</v>
+      </c>
+      <c r="D1035" t="n">
+        <v>399.5499877929688</v>
+      </c>
+      <c r="E1035" t="n">
+        <v>401.9500122070312</v>
+      </c>
+      <c r="F1035" t="n">
+        <v>401.9500122070312</v>
+      </c>
+      <c r="G1035" t="n">
+        <v>52488856</v>
+      </c>
+      <c r="H1035" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1035" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1035" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1035" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1035" t="inlineStr"/>
+    </row>
+    <row r="1036">
+      <c r="A1036" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1036" t="n">
+        <v>402.4500122070312</v>
+      </c>
+      <c r="C1036" t="n">
+        <v>419.2000122070312</v>
+      </c>
+      <c r="D1036" t="n">
+        <v>401.9500122070312</v>
+      </c>
+      <c r="E1036" t="n">
+        <v>416.2000122070312</v>
+      </c>
+      <c r="F1036" t="n">
+        <v>416.2000122070312</v>
+      </c>
+      <c r="G1036" t="n">
+        <v>79747263</v>
+      </c>
+      <c r="H1036" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1036" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1036" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1036" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1036" t="inlineStr"/>
+    </row>
+    <row r="1037">
+      <c r="A1037" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1037" t="n">
+        <v>417.7999877929688</v>
+      </c>
+      <c r="C1037" t="n">
+        <v>419.1000061035156</v>
+      </c>
+      <c r="D1037" t="n">
+        <v>392.7000122070312</v>
+      </c>
+      <c r="E1037" t="n">
+        <v>394.7999877929688</v>
+      </c>
+      <c r="F1037" t="n">
+        <v>394.7999877929688</v>
+      </c>
+      <c r="G1037" t="n">
+        <v>61897860</v>
+      </c>
+      <c r="H1037" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1037" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1037" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1037" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1037" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/NTPC.NS.xlsx
+++ b/stock_historical_data/1wk/NTPC.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1037"/>
+  <dimension ref="A1:R1066"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5227,7 +5227,7 @@
         <v>0</v>
       </c>
       <c r="Q85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R85" t="n">
         <v>0</v>
@@ -5451,7 +5451,7 @@
         <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R89" t="n">
         <v>0</v>
@@ -58037,7 +58037,9 @@
       <c r="Q1028" t="n">
         <v>0</v>
       </c>
-      <c r="R1028" t="inlineStr"/>
+      <c r="R1028" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1029">
       <c r="A1029" s="2" t="n">
@@ -58091,7 +58093,9 @@
       <c r="Q1029" t="n">
         <v>0</v>
       </c>
-      <c r="R1029" t="inlineStr"/>
+      <c r="R1029" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1030">
       <c r="A1030" s="2" t="n">
@@ -58145,7 +58149,9 @@
       <c r="Q1030" t="n">
         <v>0</v>
       </c>
-      <c r="R1030" t="inlineStr"/>
+      <c r="R1030" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1031">
       <c r="A1031" s="2" t="n">
@@ -58199,7 +58205,9 @@
       <c r="Q1031" t="n">
         <v>0</v>
       </c>
-      <c r="R1031" t="inlineStr"/>
+      <c r="R1031" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1032">
       <c r="A1032" s="2" t="n">
@@ -58253,7 +58261,9 @@
       <c r="Q1032" t="n">
         <v>0</v>
       </c>
-      <c r="R1032" t="inlineStr"/>
+      <c r="R1032" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1033">
       <c r="A1033" s="2" t="n">
@@ -58307,7 +58317,9 @@
       <c r="Q1033" t="n">
         <v>0</v>
       </c>
-      <c r="R1033" t="inlineStr"/>
+      <c r="R1033" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1034">
       <c r="A1034" s="2" t="n">
@@ -58361,7 +58373,9 @@
       <c r="Q1034" t="n">
         <v>0</v>
       </c>
-      <c r="R1034" t="inlineStr"/>
+      <c r="R1034" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1035">
       <c r="A1035" s="2" t="n">
@@ -58415,7 +58429,9 @@
       <c r="Q1035" t="n">
         <v>0</v>
       </c>
-      <c r="R1035" t="inlineStr"/>
+      <c r="R1035" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1036">
       <c r="A1036" s="2" t="n">
@@ -58469,7 +58485,9 @@
       <c r="Q1036" t="n">
         <v>0</v>
       </c>
-      <c r="R1036" t="inlineStr"/>
+      <c r="R1036" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1037">
       <c r="A1037" s="2" t="n">
@@ -58523,7 +58541,1517 @@
       <c r="Q1037" t="n">
         <v>0</v>
       </c>
-      <c r="R1037" t="inlineStr"/>
+      <c r="R1037" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1038" t="n">
+        <v>385.7965575306353</v>
+      </c>
+      <c r="C1038" t="n">
+        <v>401.6741520182725</v>
+      </c>
+      <c r="D1038" t="n">
+        <v>379.9780272717778</v>
+      </c>
+      <c r="E1038" t="n">
+        <v>395.8556518554688</v>
+      </c>
+      <c r="F1038" t="inlineStr"/>
+      <c r="G1038" t="n">
+        <v>75683543</v>
+      </c>
+      <c r="H1038" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1038" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1038" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1038" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1038" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1038" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1038" t="inlineStr"/>
+    </row>
+    <row r="1039">
+      <c r="A1039" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1039" t="n">
+        <v>396.8911472850961</v>
+      </c>
+      <c r="C1039" t="n">
+        <v>425.8850520032499</v>
+      </c>
+      <c r="D1039" t="n">
+        <v>396.4473508986543</v>
+      </c>
+      <c r="E1039" t="n">
+        <v>418.0941772460938</v>
+      </c>
+      <c r="F1039" t="inlineStr"/>
+      <c r="G1039" t="n">
+        <v>131901990</v>
+      </c>
+      <c r="H1039" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1039" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1039" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1039" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1039" t="inlineStr"/>
+    </row>
+    <row r="1040">
+      <c r="A1040" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1040" t="n">
+        <v>421.5951393020241</v>
+      </c>
+      <c r="C1040" t="n">
+        <v>436.3879512073582</v>
+      </c>
+      <c r="D1040" t="n">
+        <v>419.129670651135</v>
+      </c>
+      <c r="E1040" t="n">
+        <v>430.8652954101562</v>
+      </c>
+      <c r="F1040" t="inlineStr"/>
+      <c r="G1040" t="n">
+        <v>120050420</v>
+      </c>
+      <c r="H1040" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1040" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1040" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1040" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1040" t="inlineStr"/>
+    </row>
+    <row r="1041">
+      <c r="A1041" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1041" t="n">
+        <v>430.8652854458077</v>
+      </c>
+      <c r="C1041" t="n">
+        <v>442.2557684071262</v>
+      </c>
+      <c r="D1041" t="n">
+        <v>420.4116925885812</v>
+      </c>
+      <c r="E1041" t="n">
+        <v>424.50439453125</v>
+      </c>
+      <c r="F1041" t="inlineStr"/>
+      <c r="G1041" t="n">
+        <v>68799301</v>
+      </c>
+      <c r="H1041" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1041" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1041" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1041" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1041" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1041" t="inlineStr"/>
+    </row>
+    <row r="1042">
+      <c r="A1042" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1042" t="n">
+        <v>424.6523086842436</v>
+      </c>
+      <c r="C1042" t="n">
+        <v>427.0191524708765</v>
+      </c>
+      <c r="D1042" t="n">
+        <v>403.3999517449789</v>
+      </c>
+      <c r="E1042" t="n">
+        <v>416.6641845703125</v>
+      </c>
+      <c r="F1042" t="inlineStr"/>
+      <c r="G1042" t="n">
+        <v>80558975</v>
+      </c>
+      <c r="H1042" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1042" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1042" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1042" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1042" t="inlineStr"/>
+    </row>
+    <row r="1043">
+      <c r="A1043" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1043" t="n">
+        <v>418.7352116622228</v>
+      </c>
+      <c r="C1043" t="n">
+        <v>423.4688995462848</v>
+      </c>
+      <c r="D1043" t="n">
+        <v>408.7254147203488</v>
+      </c>
+      <c r="E1043" t="n">
+        <v>419.0803833007812</v>
+      </c>
+      <c r="F1043" t="inlineStr"/>
+      <c r="G1043" t="n">
+        <v>44865939</v>
+      </c>
+      <c r="H1043" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1043" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1043" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1043" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1043" t="inlineStr"/>
+    </row>
+    <row r="1044">
+      <c r="A1044" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1044" t="n">
+        <v>420.1651504472201</v>
+      </c>
+      <c r="C1044" t="n">
+        <v>422.827868596922</v>
+      </c>
+      <c r="D1044" t="n">
+        <v>386.1910108998044</v>
+      </c>
+      <c r="E1044" t="n">
+        <v>393.3901672363281</v>
+      </c>
+      <c r="F1044" t="inlineStr"/>
+      <c r="G1044" t="n">
+        <v>74947373</v>
+      </c>
+      <c r="H1044" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1044" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1044" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1044" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1044" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1044" t="inlineStr"/>
+    </row>
+    <row r="1045">
+      <c r="A1045" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1045" t="n">
+        <v>393.3901671204692</v>
+      </c>
+      <c r="C1045" t="n">
+        <v>409.7115874479971</v>
+      </c>
+      <c r="D1045" t="n">
+        <v>392.3053549080934</v>
+      </c>
+      <c r="E1045" t="n">
+        <v>405.668212890625</v>
+      </c>
+      <c r="F1045" t="inlineStr"/>
+      <c r="G1045" t="n">
+        <v>58614178</v>
+      </c>
+      <c r="H1045" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1045" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1045" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1045" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1045" t="inlineStr"/>
+    </row>
+    <row r="1046">
+      <c r="A1046" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1046" t="n">
+        <v>410.6468295842419</v>
+      </c>
+      <c r="C1046" t="n">
+        <v>411.0933284399135</v>
+      </c>
+      <c r="D1046" t="n">
+        <v>390.6527955436493</v>
+      </c>
+      <c r="E1046" t="n">
+        <v>394.5722045898438</v>
+      </c>
+      <c r="F1046" t="inlineStr"/>
+      <c r="G1046" t="n">
+        <v>45358278</v>
+      </c>
+      <c r="H1046" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1046" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1046" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1046" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1046" t="inlineStr"/>
+    </row>
+    <row r="1047">
+      <c r="A1047" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1047" t="n">
+        <v>395.0683148747698</v>
+      </c>
+      <c r="C1047" t="n">
+        <v>397.7970298881074</v>
+      </c>
+      <c r="D1047" t="n">
+        <v>368.4757588573375</v>
+      </c>
+      <c r="E1047" t="n">
+        <v>369.6168518066406</v>
+      </c>
+      <c r="F1047" t="inlineStr"/>
+      <c r="G1047" t="n">
+        <v>58482218</v>
+      </c>
+      <c r="H1047" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1047" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1047" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1047" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1047" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1047" t="inlineStr"/>
+    </row>
+    <row r="1048">
+      <c r="A1048" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1048" t="n">
+        <v>377.0588003439814</v>
+      </c>
+      <c r="C1048" t="n">
+        <v>377.0588003439814</v>
+      </c>
+      <c r="D1048" t="n">
+        <v>352.0538362086212</v>
+      </c>
+      <c r="E1048" t="n">
+        <v>362.6214294433594</v>
+      </c>
+      <c r="F1048" t="inlineStr"/>
+      <c r="G1048" t="n">
+        <v>70664134</v>
+      </c>
+      <c r="H1048" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1048" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1048" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1048" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1048" t="inlineStr"/>
+    </row>
+    <row r="1049">
+      <c r="A1049" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1049" t="n">
+        <v>371.1052551413077</v>
+      </c>
+      <c r="C1049" t="n">
+        <v>374.2804993834084</v>
+      </c>
+      <c r="D1049" t="n">
+        <v>356.8167166146016</v>
+      </c>
+      <c r="E1049" t="n">
+        <v>360.8353576660156</v>
+      </c>
+      <c r="F1049" t="inlineStr"/>
+      <c r="G1049" t="n">
+        <v>74954226</v>
+      </c>
+      <c r="H1049" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1049" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1049" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1049" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1049" t="inlineStr"/>
+    </row>
+    <row r="1050">
+      <c r="A1050" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1050" t="n">
+        <v>360.8353485373354</v>
+      </c>
+      <c r="C1050" t="n">
+        <v>372.2463387142267</v>
+      </c>
+      <c r="D1050" t="n">
+        <v>354.2368254913206</v>
+      </c>
+      <c r="E1050" t="n">
+        <v>366.6400756835938</v>
+      </c>
+      <c r="F1050" t="inlineStr"/>
+      <c r="G1050" t="n">
+        <v>77246433</v>
+      </c>
+      <c r="H1050" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1050" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1050" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1050" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1050" t="inlineStr"/>
+    </row>
+    <row r="1051">
+      <c r="A1051" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1051" t="n">
+        <v>368.0292572383539</v>
+      </c>
+      <c r="C1051" t="n">
+        <v>370.4106753716371</v>
+      </c>
+      <c r="D1051" t="n">
+        <v>345.3561083773276</v>
+      </c>
+      <c r="E1051" t="n">
+        <v>354.3856811523438</v>
+      </c>
+      <c r="F1051" t="inlineStr"/>
+      <c r="G1051" t="n">
+        <v>65598522</v>
+      </c>
+      <c r="H1051" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1051" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1051" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1051" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1051" t="inlineStr"/>
+    </row>
+    <row r="1052">
+      <c r="A1052" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1052" t="n">
+        <v>354.385662907353</v>
+      </c>
+      <c r="C1052" t="n">
+        <v>356.1221179561738</v>
+      </c>
+      <c r="D1052" t="n">
+        <v>328.4380692341054</v>
+      </c>
+      <c r="E1052" t="n">
+        <v>330.670654296875</v>
+      </c>
+      <c r="F1052" t="inlineStr"/>
+      <c r="G1052" t="n">
+        <v>77375637</v>
+      </c>
+      <c r="H1052" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1052" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1052" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1052" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1052" t="inlineStr"/>
+    </row>
+    <row r="1053">
+      <c r="A1053" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1053" t="n">
+        <v>333.3001324479816</v>
+      </c>
+      <c r="C1053" t="n">
+        <v>337.3684045592351</v>
+      </c>
+      <c r="D1053" t="n">
+        <v>327.9419344318447</v>
+      </c>
+      <c r="E1053" t="n">
+        <v>332.4071044921875</v>
+      </c>
+      <c r="F1053" t="inlineStr"/>
+      <c r="G1053" t="n">
+        <v>34760458</v>
+      </c>
+      <c r="H1053" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1053" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1053" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1053" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1053" t="inlineStr"/>
+    </row>
+    <row r="1054">
+      <c r="A1054" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1054" t="n">
+        <v>332.4071068196033</v>
+      </c>
+      <c r="C1054" t="n">
+        <v>341.833577012995</v>
+      </c>
+      <c r="D1054" t="n">
+        <v>323.6752307530105</v>
+      </c>
+      <c r="E1054" t="n">
+        <v>337.2195739746094</v>
+      </c>
+      <c r="F1054" t="inlineStr"/>
+      <c r="G1054" t="n">
+        <v>78315529</v>
+      </c>
+      <c r="H1054" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1054" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1054" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1054" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1054" t="inlineStr"/>
+    </row>
+    <row r="1055">
+      <c r="A1055" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1055" t="n">
+        <v>339.0552776793361</v>
+      </c>
+      <c r="C1055" t="n">
+        <v>339.0552776793361</v>
+      </c>
+      <c r="D1055" t="n">
+        <v>305.2192032712105</v>
+      </c>
+      <c r="E1055" t="n">
+        <v>305.8641662597656</v>
+      </c>
+      <c r="F1055" t="inlineStr"/>
+      <c r="G1055" t="n">
+        <v>61767696</v>
+      </c>
+      <c r="H1055" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1055" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1055" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1055" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1055" t="inlineStr"/>
+    </row>
+    <row r="1056">
+      <c r="A1056" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1056" t="n">
+        <v>298.7695081271004</v>
+      </c>
+      <c r="C1056" t="n">
+        <v>326.4535575599523</v>
+      </c>
+      <c r="D1056" t="n">
+        <v>294.5524029002621</v>
+      </c>
+      <c r="E1056" t="n">
+        <v>323.6256103515625</v>
+      </c>
+      <c r="F1056" t="inlineStr"/>
+      <c r="G1056" t="n">
+        <v>96252268</v>
+      </c>
+      <c r="H1056" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1056" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1056" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1056" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1056" t="inlineStr"/>
+    </row>
+    <row r="1057">
+      <c r="A1057" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1057" t="n">
+        <v>323.6752397874531</v>
+      </c>
+      <c r="C1057" t="n">
+        <v>335.6319612539429</v>
+      </c>
+      <c r="D1057" t="n">
+        <v>314.8937323059089</v>
+      </c>
+      <c r="E1057" t="n">
+        <v>321.1449584960938</v>
+      </c>
+      <c r="F1057" t="inlineStr"/>
+      <c r="G1057" t="n">
+        <v>55804602</v>
+      </c>
+      <c r="H1057" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1057" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1057" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1057" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1057" t="inlineStr"/>
+    </row>
+    <row r="1058">
+      <c r="A1058" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1058" t="n">
+        <v>321.1449569201506</v>
+      </c>
+      <c r="C1058" t="n">
+        <v>328.2396101726399</v>
+      </c>
+      <c r="D1058" t="n">
+        <v>305.7649262508023</v>
+      </c>
+      <c r="E1058" t="n">
+        <v>315.2410278320312</v>
+      </c>
+      <c r="F1058" t="inlineStr"/>
+      <c r="G1058" t="n">
+        <v>85538576</v>
+      </c>
+      <c r="H1058" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1058" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1058" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1058" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1058" t="inlineStr"/>
+    </row>
+    <row r="1059">
+      <c r="A1059" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1059" t="n">
+        <v>310.1000061035156</v>
+      </c>
+      <c r="C1059" t="n">
+        <v>323.0499877929688</v>
+      </c>
+      <c r="D1059" t="n">
+        <v>304</v>
+      </c>
+      <c r="E1059" t="n">
+        <v>316.9500122070312</v>
+      </c>
+      <c r="F1059" t="inlineStr"/>
+      <c r="G1059" t="n">
+        <v>62570892</v>
+      </c>
+      <c r="H1059" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1059" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1059" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1059" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1059" t="inlineStr"/>
+    </row>
+    <row r="1060">
+      <c r="A1060" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1060" t="n">
+        <v>316.5</v>
+      </c>
+      <c r="C1060" t="n">
+        <v>316.8500061035156</v>
+      </c>
+      <c r="D1060" t="n">
+        <v>298.3500061035156</v>
+      </c>
+      <c r="E1060" t="n">
+        <v>300.3500061035156</v>
+      </c>
+      <c r="F1060" t="inlineStr"/>
+      <c r="G1060" t="n">
+        <v>44197199</v>
+      </c>
+      <c r="H1060" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1060" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1060" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1060" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1060" t="inlineStr"/>
+    </row>
+    <row r="1061">
+      <c r="A1061" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1061" t="n">
+        <v>297.5</v>
+      </c>
+      <c r="C1061" t="n">
+        <v>329.75</v>
+      </c>
+      <c r="D1061" t="n">
+        <v>292.7999877929688</v>
+      </c>
+      <c r="E1061" t="n">
+        <v>326.25</v>
+      </c>
+      <c r="F1061" t="inlineStr"/>
+      <c r="G1061" t="n">
+        <v>69034845</v>
+      </c>
+      <c r="H1061" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1061" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1061" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1061" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1061" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1061" t="inlineStr"/>
+    </row>
+    <row r="1062">
+      <c r="A1062" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1062" t="n">
+        <v>322.1000061035156</v>
+      </c>
+      <c r="C1062" t="n">
+        <v>325.3999938964844</v>
+      </c>
+      <c r="D1062" t="n">
+        <v>306.5499877929688</v>
+      </c>
+      <c r="E1062" t="n">
+        <v>311.4500122070312</v>
+      </c>
+      <c r="F1062" t="inlineStr"/>
+      <c r="G1062" t="n">
+        <v>45149771</v>
+      </c>
+      <c r="H1062" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1062" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1062" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1062" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1062" t="inlineStr"/>
+    </row>
+    <row r="1063">
+      <c r="A1063" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1063" t="n">
+        <v>311.2999877929688</v>
+      </c>
+      <c r="C1063" t="n">
+        <v>338.7999877929688</v>
+      </c>
+      <c r="D1063" t="n">
+        <v>307.7000122070312</v>
+      </c>
+      <c r="E1063" t="n">
+        <v>329.5499877929688</v>
+      </c>
+      <c r="F1063" t="inlineStr"/>
+      <c r="G1063" t="n">
+        <v>64295535</v>
+      </c>
+      <c r="H1063" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1063" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1063" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1063" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1063" t="inlineStr"/>
+    </row>
+    <row r="1064">
+      <c r="A1064" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1064" t="n">
+        <v>329.4500122070312</v>
+      </c>
+      <c r="C1064" t="n">
+        <v>334.9500122070312</v>
+      </c>
+      <c r="D1064" t="n">
+        <v>323.7000122070312</v>
+      </c>
+      <c r="E1064" t="n">
+        <v>331.8999938964844</v>
+      </c>
+      <c r="F1064" t="inlineStr"/>
+      <c r="G1064" t="n">
+        <v>37632465</v>
+      </c>
+      <c r="H1064" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1064" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1064" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1064" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1064" t="inlineStr"/>
+    </row>
+    <row r="1065">
+      <c r="A1065" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1065" t="n">
+        <v>332.9500122070312</v>
+      </c>
+      <c r="C1065" t="n">
+        <v>353.8500061035156</v>
+      </c>
+      <c r="D1065" t="n">
+        <v>330.5</v>
+      </c>
+      <c r="E1065" t="n">
+        <v>351.2999877929688</v>
+      </c>
+      <c r="F1065" t="inlineStr"/>
+      <c r="G1065" t="n">
+        <v>86344914</v>
+      </c>
+      <c r="H1065" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1065" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1065" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1065" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1065" t="inlineStr"/>
+    </row>
+    <row r="1066">
+      <c r="A1066" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1066" t="n">
+        <v>357</v>
+      </c>
+      <c r="C1066" t="n">
+        <v>371.4500122070312</v>
+      </c>
+      <c r="D1066" t="n">
+        <v>351</v>
+      </c>
+      <c r="E1066" t="n">
+        <v>357.6000061035156</v>
+      </c>
+      <c r="F1066" t="inlineStr"/>
+      <c r="G1066" t="n">
+        <v>115703264</v>
+      </c>
+      <c r="H1066" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1066" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1066" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1066" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1066" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
